--- a/Code/Results/Cases/Case_3_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012293228205424</v>
+        <v>1.049372342731084</v>
       </c>
       <c r="D2">
-        <v>1.03287901992843</v>
+        <v>1.05524637138613</v>
       </c>
       <c r="E2">
-        <v>1.026605480171401</v>
+        <v>1.056519709342214</v>
       </c>
       <c r="F2">
-        <v>1.03697033662407</v>
+        <v>1.067132573282867</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053205625231148</v>
+        <v>1.041848971240415</v>
       </c>
       <c r="J2">
-        <v>1.03411236656487</v>
+        <v>1.054411138602306</v>
       </c>
       <c r="K2">
-        <v>1.043898540722388</v>
+        <v>1.057987356641866</v>
       </c>
       <c r="L2">
-        <v>1.03770619594475</v>
+        <v>1.05925719649649</v>
       </c>
       <c r="M2">
-        <v>1.047937566859729</v>
+        <v>1.069841256274515</v>
       </c>
       <c r="N2">
-        <v>1.014614853274505</v>
+        <v>1.02188240050593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018482842705358</v>
+        <v>1.050641670357191</v>
       </c>
       <c r="D3">
-        <v>1.037778944593765</v>
+        <v>1.056256662867596</v>
       </c>
       <c r="E3">
-        <v>1.031841033751534</v>
+        <v>1.057640081975788</v>
       </c>
       <c r="F3">
-        <v>1.042528827925423</v>
+        <v>1.068320380919643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055205674740066</v>
+        <v>1.042151848842784</v>
       </c>
       <c r="J3">
-        <v>1.038482021564355</v>
+        <v>1.055328154213817</v>
       </c>
       <c r="K3">
-        <v>1.047950221346012</v>
+        <v>1.058810549063882</v>
       </c>
       <c r="L3">
-        <v>1.042082088839135</v>
+        <v>1.060190443672389</v>
       </c>
       <c r="M3">
-        <v>1.052644994211766</v>
+        <v>1.070843863620556</v>
       </c>
       <c r="N3">
-        <v>1.016122458725177</v>
+        <v>1.022193756721284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022385990133504</v>
+        <v>1.051462580709762</v>
       </c>
       <c r="D4">
-        <v>1.040869645453274</v>
+        <v>1.056909679332007</v>
       </c>
       <c r="E4">
-        <v>1.035148463088683</v>
+        <v>1.058364941921949</v>
       </c>
       <c r="F4">
-        <v>1.046039629752736</v>
+        <v>1.069088813590013</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056451576544295</v>
+        <v>1.042345815429295</v>
       </c>
       <c r="J4">
-        <v>1.041233891441819</v>
+        <v>1.055920595138128</v>
       </c>
       <c r="K4">
-        <v>1.050498616804235</v>
+        <v>1.059341890785107</v>
       </c>
       <c r="L4">
-        <v>1.044840406412453</v>
+        <v>1.060793633302113</v>
       </c>
       <c r="M4">
-        <v>1.055612422693196</v>
+        <v>1.071491882721988</v>
       </c>
       <c r="N4">
-        <v>1.017071213428704</v>
+        <v>1.022394741303565</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.02400360503939</v>
+        <v>1.05180759117196</v>
       </c>
       <c r="D5">
-        <v>1.042150666083503</v>
+        <v>1.057184038778563</v>
       </c>
       <c r="E5">
-        <v>1.036520538119786</v>
+        <v>1.058669651556289</v>
       </c>
       <c r="F5">
-        <v>1.047495920975223</v>
+        <v>1.069411826386207</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056964187241105</v>
+        <v>1.042426876921376</v>
       </c>
       <c r="J5">
-        <v>1.042373451442101</v>
+        <v>1.056169436277919</v>
       </c>
       <c r="K5">
-        <v>1.051553122500394</v>
+        <v>1.059564952300512</v>
       </c>
       <c r="L5">
-        <v>1.045983235499411</v>
+        <v>1.061047051945568</v>
       </c>
       <c r="M5">
-        <v>1.056841917113171</v>
+        <v>1.071764135443229</v>
       </c>
       <c r="N5">
-        <v>1.017463920454786</v>
+        <v>1.022479119849911</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02427387689085</v>
+        <v>1.051865514142619</v>
       </c>
       <c r="D6">
-        <v>1.042364704014935</v>
+        <v>1.057230095081056</v>
       </c>
       <c r="E6">
-        <v>1.036749862422625</v>
+        <v>1.058720812428448</v>
       </c>
       <c r="F6">
-        <v>1.047739311969501</v>
+        <v>1.069466059573738</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057049612823022</v>
+        <v>1.042440459247179</v>
       </c>
       <c r="J6">
-        <v>1.04256379400271</v>
+        <v>1.056211204882636</v>
       </c>
       <c r="K6">
-        <v>1.051729210959009</v>
+        <v>1.059602386899669</v>
       </c>
       <c r="L6">
-        <v>1.04617415918573</v>
+        <v>1.061089592575503</v>
       </c>
       <c r="M6">
-        <v>1.057047320717529</v>
+        <v>1.07180983768108</v>
       </c>
       <c r="N6">
-        <v>1.017529504283283</v>
+        <v>1.022493280626074</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022407694762987</v>
+        <v>1.051467191147157</v>
       </c>
       <c r="D7">
-        <v>1.040886833423176</v>
+        <v>1.056913345997635</v>
       </c>
       <c r="E7">
-        <v>1.035166867899121</v>
+        <v>1.058369013549555</v>
       </c>
       <c r="F7">
-        <v>1.046059164827724</v>
+        <v>1.069093129843456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056458469455357</v>
+        <v>1.04234690047055</v>
       </c>
       <c r="J7">
-        <v>1.041249185396972</v>
+        <v>1.055923921032243</v>
       </c>
       <c r="K7">
-        <v>1.050512772423044</v>
+        <v>1.059344872578486</v>
       </c>
       <c r="L7">
-        <v>1.044855741878592</v>
+        <v>1.060797020130335</v>
       </c>
       <c r="M7">
-        <v>1.055628921011931</v>
+        <v>1.071495521260117</v>
       </c>
       <c r="N7">
-        <v>1.01707648463281</v>
+        <v>1.022395869226634</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014406856614626</v>
+        <v>1.049801408426992</v>
       </c>
       <c r="D8">
-        <v>1.034552018660065</v>
+        <v>1.055587951806748</v>
       </c>
       <c r="E8">
-        <v>1.028392028793181</v>
+        <v>1.056898365322411</v>
       </c>
       <c r="F8">
-        <v>1.038867216272233</v>
+        <v>1.067534032176533</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053891786909104</v>
+        <v>1.041951747733662</v>
       </c>
       <c r="J8">
-        <v>1.035605243605527</v>
+        <v>1.054721241684395</v>
       </c>
       <c r="K8">
-        <v>1.045283448924966</v>
+        <v>1.058265832161852</v>
       </c>
       <c r="L8">
-        <v>1.039200669984783</v>
+        <v>1.05957273415938</v>
       </c>
       <c r="M8">
-        <v>1.049545237467755</v>
+        <v>1.070180245147378</v>
       </c>
       <c r="N8">
-        <v>1.015130059159565</v>
+        <v>1.021987725210745</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9994720408121487</v>
+        <v>1.046862681270108</v>
       </c>
       <c r="D9">
-        <v>1.022737933212732</v>
+        <v>1.053246946863102</v>
       </c>
       <c r="E9">
-        <v>1.015796793924353</v>
+        <v>1.054306091130179</v>
       </c>
       <c r="F9">
-        <v>1.025491414975134</v>
+        <v>1.064785418154973</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048980398940395</v>
+        <v>1.041239981307299</v>
       </c>
       <c r="J9">
-        <v>1.025043456463741</v>
+        <v>1.052594780422623</v>
       </c>
       <c r="K9">
-        <v>1.035472568895843</v>
+        <v>1.056354270621054</v>
       </c>
       <c r="L9">
-        <v>1.028638674705099</v>
+        <v>1.057410086125491</v>
       </c>
       <c r="M9">
-        <v>1.038184020300106</v>
+        <v>1.067856867539925</v>
       </c>
       <c r="N9">
-        <v>1.011482611606489</v>
+        <v>1.02126479922716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.988867938587366</v>
+        <v>1.044901076039247</v>
       </c>
       <c r="D10">
-        <v>1.014363396855971</v>
+        <v>1.051682503799863</v>
       </c>
       <c r="E10">
-        <v>1.00689400498199</v>
+        <v>1.052577269171685</v>
       </c>
       <c r="F10">
-        <v>1.016033395778802</v>
+        <v>1.062952040658439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045415878174162</v>
+        <v>1.040755047169783</v>
       </c>
       <c r="J10">
-        <v>1.017530296058804</v>
+        <v>1.051172210341495</v>
       </c>
       <c r="K10">
-        <v>1.028478069682993</v>
+        <v>1.055072990731549</v>
       </c>
       <c r="L10">
-        <v>1.021139891754011</v>
+        <v>1.055964666219294</v>
       </c>
       <c r="M10">
-        <v>1.030119073384577</v>
+        <v>1.06630402809712</v>
       </c>
       <c r="N10">
-        <v>1.008885379325698</v>
+        <v>1.020780316505537</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9841010640862976</v>
+        <v>1.044051059952946</v>
       </c>
       <c r="D11">
-        <v>1.010603633501063</v>
+        <v>1.051004168655499</v>
       </c>
       <c r="E11">
-        <v>1.002902814784379</v>
+        <v>1.05182849575234</v>
       </c>
       <c r="F11">
-        <v>1.011792456073512</v>
+        <v>1.062157914124582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04379623039845</v>
+        <v>1.040542585595719</v>
       </c>
       <c r="J11">
-        <v>1.014150548361443</v>
+        <v>1.050555030152875</v>
       </c>
       <c r="K11">
-        <v>1.025328313488982</v>
+        <v>1.054516526176095</v>
       </c>
       <c r="L11">
-        <v>1.017770195113362</v>
+        <v>1.055337895497051</v>
       </c>
       <c r="M11">
-        <v>1.026495358537803</v>
+        <v>1.065630679763498</v>
       </c>
       <c r="N11">
-        <v>1.00771659948475</v>
+        <v>1.020569922972107</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.982302042701978</v>
+        <v>1.043735228449959</v>
       </c>
       <c r="D12">
-        <v>1.009185573083702</v>
+        <v>1.050752064649439</v>
       </c>
       <c r="E12">
-        <v>1.001398300693142</v>
+        <v>1.051550338535824</v>
       </c>
       <c r="F12">
-        <v>1.010193670839931</v>
+        <v>1.0618628986135</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043182475976475</v>
+        <v>1.040463294297733</v>
       </c>
       <c r="J12">
-        <v>1.01287476813021</v>
+        <v>1.050325599930825</v>
       </c>
       <c r="K12">
-        <v>1.024138882805576</v>
+        <v>1.05430957908888</v>
       </c>
       <c r="L12">
-        <v>1.016498760411446</v>
+        <v>1.055104948654403</v>
       </c>
       <c r="M12">
-        <v>1.025128147757012</v>
+        <v>1.065380422211278</v>
       </c>
       <c r="N12">
-        <v>1.007275363028417</v>
+        <v>1.020491681293444</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9826892592345224</v>
+        <v>1.043802979853231</v>
       </c>
       <c r="D13">
-        <v>1.009490750518515</v>
+        <v>1.050806148184226</v>
       </c>
       <c r="E13">
-        <v>1.001722046477385</v>
+        <v>1.051610005568125</v>
       </c>
       <c r="F13">
-        <v>1.010537707856178</v>
+        <v>1.061926182358122</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043314689976401</v>
+        <v>1.040480319468792</v>
       </c>
       <c r="J13">
-        <v>1.013149373894629</v>
+        <v>1.050374821761967</v>
       </c>
       <c r="K13">
-        <v>1.024394922781092</v>
+        <v>1.054353981344134</v>
       </c>
       <c r="L13">
-        <v>1.016772405695447</v>
+        <v>1.05515492274127</v>
       </c>
       <c r="M13">
-        <v>1.025422403251366</v>
+        <v>1.065434109944513</v>
       </c>
       <c r="N13">
-        <v>1.007370339002037</v>
+        <v>1.02050846857904</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9839529483191841</v>
+        <v>1.044024955234314</v>
       </c>
       <c r="D14">
-        <v>1.010486864058954</v>
+        <v>1.050983332528595</v>
       </c>
       <c r="E14">
-        <v>1.002778909617887</v>
+        <v>1.051805503802425</v>
       </c>
       <c r="F14">
-        <v>1.01166078970783</v>
+        <v>1.062133528910942</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043745749316768</v>
+        <v>1.040536038978084</v>
       </c>
       <c r="J14">
-        <v>1.014045516470045</v>
+        <v>1.050536069104152</v>
       </c>
       <c r="K14">
-        <v>1.025230399834038</v>
+        <v>1.054499425003111</v>
       </c>
       <c r="L14">
-        <v>1.01766550970541</v>
+        <v>1.055318642829788</v>
       </c>
       <c r="M14">
-        <v>1.026382785820408</v>
+        <v>1.065609996386027</v>
       </c>
       <c r="N14">
-        <v>1.007680274427653</v>
+        <v>1.020563457373964</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9847277212044027</v>
+        <v>1.04416170854939</v>
       </c>
       <c r="D15">
-        <v>1.011097705275599</v>
+        <v>1.051092483029275</v>
       </c>
       <c r="E15">
-        <v>1.003427112777941</v>
+        <v>1.051925952754988</v>
       </c>
       <c r="F15">
-        <v>1.012349590034302</v>
+        <v>1.062261276392592</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044009707748945</v>
+        <v>1.040570320077768</v>
       </c>
       <c r="J15">
-        <v>1.014594913548487</v>
+        <v>1.050635394732822</v>
       </c>
       <c r="K15">
-        <v>1.025742544284776</v>
+        <v>1.054589004281218</v>
       </c>
       <c r="L15">
-        <v>1.018213116930234</v>
+        <v>1.055419498062419</v>
       </c>
       <c r="M15">
-        <v>1.026971654247806</v>
+        <v>1.065718346421703</v>
       </c>
       <c r="N15">
-        <v>1.007870280400004</v>
+        <v>1.020597325555969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.989180436979014</v>
+        <v>1.044957475291523</v>
       </c>
       <c r="D16">
-        <v>1.014609985658465</v>
+        <v>1.051727503115215</v>
       </c>
       <c r="E16">
-        <v>1.007155888903399</v>
+        <v>1.052626958784371</v>
       </c>
       <c r="F16">
-        <v>1.016311649748299</v>
+        <v>1.063004738514177</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045521705621625</v>
+        <v>1.040769095191713</v>
       </c>
       <c r="J16">
-        <v>1.017751818420325</v>
+        <v>1.051213145144528</v>
       </c>
       <c r="K16">
-        <v>1.028684451155016</v>
+        <v>1.055109886292837</v>
       </c>
       <c r="L16">
-        <v>1.021360830748551</v>
+        <v>1.05600624392096</v>
       </c>
       <c r="M16">
-        <v>1.030356676420338</v>
+        <v>1.066348695642926</v>
       </c>
       <c r="N16">
-        <v>1.008961978349364</v>
+        <v>1.020794266741878</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9919252015661786</v>
+        <v>1.045456468251054</v>
       </c>
       <c r="D17">
-        <v>1.016776413118728</v>
+        <v>1.052125586625652</v>
       </c>
       <c r="E17">
-        <v>1.009457339434958</v>
+        <v>1.053066631133953</v>
       </c>
       <c r="F17">
-        <v>1.018756866371953</v>
+        <v>1.063471020973635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046449272728122</v>
+        <v>1.040893116580796</v>
       </c>
       <c r="J17">
-        <v>1.019697258355167</v>
+        <v>1.051575230549783</v>
       </c>
       <c r="K17">
-        <v>1.030496548978881</v>
+        <v>1.055436175686682</v>
       </c>
       <c r="L17">
-        <v>1.023301554590738</v>
+        <v>1.056374053296512</v>
       </c>
       <c r="M17">
-        <v>1.032443822798759</v>
+        <v>1.066743839015025</v>
       </c>
       <c r="N17">
-        <v>1.009634634672154</v>
+        <v>1.020917639183749</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9935094197199424</v>
+        <v>1.045747462027938</v>
       </c>
       <c r="D18">
-        <v>1.018027275197473</v>
+        <v>1.052357693262821</v>
       </c>
       <c r="E18">
-        <v>1.010786705003648</v>
+        <v>1.053323067148253</v>
       </c>
       <c r="F18">
-        <v>1.020169195293354</v>
+        <v>1.0637429705167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046983006792604</v>
+        <v>1.040965216742748</v>
       </c>
       <c r="J18">
-        <v>1.020819895949368</v>
+        <v>1.051786313394834</v>
       </c>
       <c r="K18">
-        <v>1.031541924258555</v>
+        <v>1.055626334535765</v>
       </c>
       <c r="L18">
-        <v>1.024421807722859</v>
+        <v>1.056588504120674</v>
       </c>
       <c r="M18">
-        <v>1.033648632884619</v>
+        <v>1.066974227102572</v>
       </c>
       <c r="N18">
-        <v>1.010022756601704</v>
+        <v>1.020989541493221</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9940468142653757</v>
+        <v>1.045846673245157</v>
       </c>
       <c r="D19">
-        <v>1.018451661246465</v>
+        <v>1.052436820628851</v>
       </c>
       <c r="E19">
-        <v>1.011237818273049</v>
+        <v>1.053410502308017</v>
       </c>
       <c r="F19">
-        <v>1.02064844836829</v>
+        <v>1.063835694086946</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047163778182728</v>
+        <v>1.040989760447439</v>
       </c>
       <c r="J19">
-        <v>1.021200673048599</v>
+        <v>1.051858267669645</v>
       </c>
       <c r="K19">
-        <v>1.031896440977393</v>
+        <v>1.055691146661254</v>
       </c>
       <c r="L19">
-        <v>1.024801832859149</v>
+        <v>1.056661611752808</v>
       </c>
       <c r="M19">
-        <v>1.034057348386961</v>
+        <v>1.067052767880715</v>
       </c>
       <c r="N19">
-        <v>1.010154392519569</v>
+        <v>1.021014048376075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916324617647684</v>
+        <v>1.045402937299024</v>
       </c>
       <c r="D20">
-        <v>1.016545307737405</v>
+        <v>1.052082885224914</v>
       </c>
       <c r="E20">
-        <v>1.009211774145339</v>
+        <v>1.05301946027062</v>
       </c>
       <c r="F20">
-        <v>1.018495969405098</v>
+        <v>1.063420995894595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046350513471292</v>
+        <v>1.040879835029175</v>
       </c>
       <c r="J20">
-        <v>1.019489792669621</v>
+        <v>1.051536394169384</v>
       </c>
       <c r="K20">
-        <v>1.030303335743568</v>
+        <v>1.055401184509591</v>
       </c>
       <c r="L20">
-        <v>1.023094556747646</v>
+        <v>1.056334599758399</v>
       </c>
       <c r="M20">
-        <v>1.032221203628253</v>
+        <v>1.06670145343897</v>
       </c>
       <c r="N20">
-        <v>1.009562905456236</v>
+        <v>1.020904408569709</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9835816248143958</v>
+        <v>1.043959591740403</v>
       </c>
       <c r="D21">
-        <v>1.01019413984459</v>
+        <v>1.05093116003792</v>
       </c>
       <c r="E21">
-        <v>1.002468310474625</v>
+        <v>1.051747935274179</v>
       </c>
       <c r="F21">
-        <v>1.011330733159622</v>
+        <v>1.062072471684046</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043619154319087</v>
+        <v>1.040519641290753</v>
       </c>
       <c r="J21">
-        <v>1.013782199568225</v>
+        <v>1.050488590821959</v>
       </c>
       <c r="K21">
-        <v>1.02498492108001</v>
+        <v>1.05445660242346</v>
       </c>
       <c r="L21">
-        <v>1.0174030703649</v>
+        <v>1.055270435122081</v>
       </c>
       <c r="M21">
-        <v>1.026100574657372</v>
+        <v>1.065558206259151</v>
       </c>
       <c r="N21">
-        <v>1.007589206124704</v>
+        <v>1.020547267093195</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9783542899798</v>
+        <v>1.043051536291534</v>
       </c>
       <c r="D22">
-        <v>1.00607558638877</v>
+        <v>1.050206213063989</v>
       </c>
       <c r="E22">
-        <v>0.9981002114331351</v>
+        <v>1.050948305737939</v>
       </c>
       <c r="F22">
-        <v>1.006688694975876</v>
+        <v>1.061224359449618</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04183117267528</v>
+        <v>1.040291011232716</v>
       </c>
       <c r="J22">
-        <v>1.010074836453748</v>
+        <v>1.049828741138811</v>
       </c>
       <c r="K22">
-        <v>1.02152763796325</v>
+        <v>1.053861250951212</v>
       </c>
       <c r="L22">
-        <v>1.013709397685526</v>
+        <v>1.054600563090014</v>
       </c>
       <c r="M22">
-        <v>1.022128801926063</v>
+        <v>1.064838555678801</v>
       </c>
       <c r="N22">
-        <v>1.006306920870684</v>
+        <v>1.020322184601082</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9811418303236475</v>
+        <v>1.043532968504469</v>
       </c>
       <c r="D23">
-        <v>1.008271314039514</v>
+        <v>1.050590598697566</v>
       </c>
       <c r="E23">
-        <v>1.000428533879693</v>
+        <v>1.051372221416234</v>
       </c>
       <c r="F23">
-        <v>1.009163104029</v>
+        <v>1.061673983424203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04278596652823</v>
+        <v>1.04041241752768</v>
       </c>
       <c r="J23">
-        <v>1.012051939239133</v>
+        <v>1.050178640544069</v>
       </c>
       <c r="K23">
-        <v>1.023371618600217</v>
+        <v>1.054176996537352</v>
       </c>
       <c r="L23">
-        <v>1.015678891424686</v>
+        <v>1.05495575040695</v>
       </c>
       <c r="M23">
-        <v>1.024246539294397</v>
+        <v>1.065220136894617</v>
       </c>
       <c r="N23">
-        <v>1.006990771306209</v>
+        <v>1.02044155585998</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9917647899101539</v>
+        <v>1.045427125818506</v>
       </c>
       <c r="D24">
-        <v>1.01664977369304</v>
+        <v>1.05210218042409</v>
       </c>
       <c r="E24">
-        <v>1.009322774687105</v>
+        <v>1.0530407748072</v>
       </c>
       <c r="F24">
-        <v>1.018613900423944</v>
+        <v>1.063443600152183</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046395161036201</v>
+        <v>1.040885837130435</v>
       </c>
       <c r="J24">
-        <v>1.01958357478698</v>
+        <v>1.051553943014702</v>
       </c>
       <c r="K24">
-        <v>1.030390676212095</v>
+        <v>1.055416996011461</v>
       </c>
       <c r="L24">
-        <v>1.023188126337814</v>
+        <v>1.056352427380255</v>
       </c>
       <c r="M24">
-        <v>1.032321834440347</v>
+        <v>1.066720605941714</v>
       </c>
       <c r="N24">
-        <v>1.009595329830075</v>
+        <v>1.020910387096227</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003440453739783</v>
+        <v>1.047622833087187</v>
       </c>
       <c r="D25">
-        <v>1.025875247277162</v>
+        <v>1.053852811780939</v>
       </c>
       <c r="E25">
-        <v>1.01913708891328</v>
+        <v>1.05497636153722</v>
       </c>
       <c r="F25">
-        <v>1.029039316027211</v>
+        <v>1.065496163706886</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050298983640716</v>
+        <v>1.041425824850538</v>
       </c>
       <c r="J25">
-        <v>1.027852585056575</v>
+        <v>1.053145383261053</v>
       </c>
       <c r="K25">
-        <v>1.038084736450254</v>
+        <v>1.056849666461761</v>
       </c>
       <c r="L25">
-        <v>1.031445416153856</v>
+        <v>1.057969819886519</v>
       </c>
       <c r="M25">
-        <v>1.041202959286101</v>
+        <v>1.068458200562215</v>
       </c>
       <c r="N25">
-        <v>1.0124532310639</v>
+        <v>1.021452137135813</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_177/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_177/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049372342731084</v>
+        <v>1.012293228205424</v>
       </c>
       <c r="D2">
-        <v>1.05524637138613</v>
+        <v>1.032879019928429</v>
       </c>
       <c r="E2">
-        <v>1.056519709342214</v>
+        <v>1.0266054801714</v>
       </c>
       <c r="F2">
-        <v>1.067132573282867</v>
+        <v>1.03697033662407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041848971240415</v>
+        <v>1.053205625231148</v>
       </c>
       <c r="J2">
-        <v>1.054411138602306</v>
+        <v>1.034112366564869</v>
       </c>
       <c r="K2">
-        <v>1.057987356641866</v>
+        <v>1.043898540722387</v>
       </c>
       <c r="L2">
-        <v>1.05925719649649</v>
+        <v>1.03770619594475</v>
       </c>
       <c r="M2">
-        <v>1.069841256274515</v>
+        <v>1.047937566859729</v>
       </c>
       <c r="N2">
-        <v>1.02188240050593</v>
+        <v>1.014614853274505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.050641670357191</v>
+        <v>1.018482842705357</v>
       </c>
       <c r="D3">
-        <v>1.056256662867596</v>
+        <v>1.037778944593765</v>
       </c>
       <c r="E3">
-        <v>1.057640081975788</v>
+        <v>1.031841033751533</v>
       </c>
       <c r="F3">
-        <v>1.068320380919643</v>
+        <v>1.042528827925423</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042151848842784</v>
+        <v>1.055205674740066</v>
       </c>
       <c r="J3">
-        <v>1.055328154213817</v>
+        <v>1.038482021564354</v>
       </c>
       <c r="K3">
-        <v>1.058810549063882</v>
+        <v>1.047950221346011</v>
       </c>
       <c r="L3">
-        <v>1.060190443672389</v>
+        <v>1.042082088839134</v>
       </c>
       <c r="M3">
-        <v>1.070843863620556</v>
+        <v>1.052644994211765</v>
       </c>
       <c r="N3">
-        <v>1.022193756721284</v>
+        <v>1.016122458725177</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051462580709762</v>
+        <v>1.022385990133503</v>
       </c>
       <c r="D4">
-        <v>1.056909679332007</v>
+        <v>1.040869645453274</v>
       </c>
       <c r="E4">
-        <v>1.058364941921949</v>
+        <v>1.035148463088682</v>
       </c>
       <c r="F4">
-        <v>1.069088813590013</v>
+        <v>1.046039629752735</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042345815429295</v>
+        <v>1.056451576544294</v>
       </c>
       <c r="J4">
-        <v>1.055920595138128</v>
+        <v>1.041233891441818</v>
       </c>
       <c r="K4">
-        <v>1.059341890785107</v>
+        <v>1.050498616804235</v>
       </c>
       <c r="L4">
-        <v>1.060793633302113</v>
+        <v>1.044840406412453</v>
       </c>
       <c r="M4">
-        <v>1.071491882721988</v>
+        <v>1.055612422693195</v>
       </c>
       <c r="N4">
-        <v>1.022394741303565</v>
+        <v>1.017071213428703</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05180759117196</v>
+        <v>1.02400360503939</v>
       </c>
       <c r="D5">
-        <v>1.057184038778563</v>
+        <v>1.042150666083503</v>
       </c>
       <c r="E5">
-        <v>1.058669651556289</v>
+        <v>1.036520538119786</v>
       </c>
       <c r="F5">
-        <v>1.069411826386207</v>
+        <v>1.047495920975223</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042426876921376</v>
+        <v>1.056964187241105</v>
       </c>
       <c r="J5">
-        <v>1.056169436277919</v>
+        <v>1.042373451442101</v>
       </c>
       <c r="K5">
-        <v>1.059564952300512</v>
+        <v>1.051553122500394</v>
       </c>
       <c r="L5">
-        <v>1.061047051945568</v>
+        <v>1.045983235499411</v>
       </c>
       <c r="M5">
-        <v>1.071764135443229</v>
+        <v>1.056841917113171</v>
       </c>
       <c r="N5">
-        <v>1.022479119849911</v>
+        <v>1.017463920454786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.051865514142619</v>
+        <v>1.02427387689085</v>
       </c>
       <c r="D6">
-        <v>1.057230095081056</v>
+        <v>1.042364704014935</v>
       </c>
       <c r="E6">
-        <v>1.058720812428448</v>
+        <v>1.036749862422625</v>
       </c>
       <c r="F6">
-        <v>1.069466059573738</v>
+        <v>1.047739311969501</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042440459247179</v>
+        <v>1.057049612823022</v>
       </c>
       <c r="J6">
-        <v>1.056211204882636</v>
+        <v>1.042563794002709</v>
       </c>
       <c r="K6">
-        <v>1.059602386899669</v>
+        <v>1.051729210959009</v>
       </c>
       <c r="L6">
-        <v>1.061089592575503</v>
+        <v>1.04617415918573</v>
       </c>
       <c r="M6">
-        <v>1.07180983768108</v>
+        <v>1.057047320717529</v>
       </c>
       <c r="N6">
-        <v>1.022493280626074</v>
+        <v>1.017529504283283</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051467191147157</v>
+        <v>1.022407694762986</v>
       </c>
       <c r="D7">
-        <v>1.056913345997635</v>
+        <v>1.040886833423175</v>
       </c>
       <c r="E7">
-        <v>1.058369013549555</v>
+        <v>1.03516686789912</v>
       </c>
       <c r="F7">
-        <v>1.069093129843456</v>
+        <v>1.046059164827724</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04234690047055</v>
+        <v>1.056458469455357</v>
       </c>
       <c r="J7">
-        <v>1.055923921032243</v>
+        <v>1.041249185396971</v>
       </c>
       <c r="K7">
-        <v>1.059344872578486</v>
+        <v>1.050512772423043</v>
       </c>
       <c r="L7">
-        <v>1.060797020130335</v>
+        <v>1.044855741878592</v>
       </c>
       <c r="M7">
-        <v>1.071495521260117</v>
+        <v>1.055628921011931</v>
       </c>
       <c r="N7">
-        <v>1.022395869226634</v>
+        <v>1.01707648463281</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.049801408426992</v>
+        <v>1.014406856614626</v>
       </c>
       <c r="D8">
-        <v>1.055587951806748</v>
+        <v>1.034552018660065</v>
       </c>
       <c r="E8">
-        <v>1.056898365322411</v>
+        <v>1.028392028793181</v>
       </c>
       <c r="F8">
-        <v>1.067534032176533</v>
+        <v>1.038867216272232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041951747733662</v>
+        <v>1.053891786909104</v>
       </c>
       <c r="J8">
-        <v>1.054721241684395</v>
+        <v>1.035605243605527</v>
       </c>
       <c r="K8">
-        <v>1.058265832161852</v>
+        <v>1.045283448924966</v>
       </c>
       <c r="L8">
-        <v>1.05957273415938</v>
+        <v>1.039200669984782</v>
       </c>
       <c r="M8">
-        <v>1.070180245147378</v>
+        <v>1.049545237467755</v>
       </c>
       <c r="N8">
-        <v>1.021987725210745</v>
+        <v>1.015130059159565</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.046862681270108</v>
+        <v>0.9994720408121489</v>
       </c>
       <c r="D9">
-        <v>1.053246946863102</v>
+        <v>1.022737933212733</v>
       </c>
       <c r="E9">
-        <v>1.054306091130179</v>
+        <v>1.015796793924354</v>
       </c>
       <c r="F9">
-        <v>1.064785418154973</v>
+        <v>1.025491414975134</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041239981307299</v>
+        <v>1.048980398940395</v>
       </c>
       <c r="J9">
-        <v>1.052594780422623</v>
+        <v>1.025043456463741</v>
       </c>
       <c r="K9">
-        <v>1.056354270621054</v>
+        <v>1.035472568895844</v>
       </c>
       <c r="L9">
-        <v>1.057410086125491</v>
+        <v>1.028638674705099</v>
       </c>
       <c r="M9">
-        <v>1.067856867539925</v>
+        <v>1.038184020300107</v>
       </c>
       <c r="N9">
-        <v>1.02126479922716</v>
+        <v>1.011482611606489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044901076039247</v>
+        <v>0.9888679385873654</v>
       </c>
       <c r="D10">
-        <v>1.051682503799863</v>
+        <v>1.014363396855971</v>
       </c>
       <c r="E10">
-        <v>1.052577269171685</v>
+        <v>1.00689400498199</v>
       </c>
       <c r="F10">
-        <v>1.062952040658439</v>
+        <v>1.016033395778801</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040755047169783</v>
+        <v>1.045415878174162</v>
       </c>
       <c r="J10">
-        <v>1.051172210341495</v>
+        <v>1.017530296058803</v>
       </c>
       <c r="K10">
-        <v>1.055072990731549</v>
+        <v>1.028478069682993</v>
       </c>
       <c r="L10">
-        <v>1.055964666219294</v>
+        <v>1.02113989175401</v>
       </c>
       <c r="M10">
-        <v>1.06630402809712</v>
+        <v>1.030119073384577</v>
       </c>
       <c r="N10">
-        <v>1.020780316505537</v>
+        <v>1.008885379325698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044051059952946</v>
+        <v>0.9841010640862973</v>
       </c>
       <c r="D11">
-        <v>1.051004168655499</v>
+        <v>1.010603633501062</v>
       </c>
       <c r="E11">
-        <v>1.05182849575234</v>
+        <v>1.002902814784379</v>
       </c>
       <c r="F11">
-        <v>1.062157914124582</v>
+        <v>1.011792456073512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040542585595719</v>
+        <v>1.04379623039845</v>
       </c>
       <c r="J11">
-        <v>1.050555030152875</v>
+        <v>1.014150548361443</v>
       </c>
       <c r="K11">
-        <v>1.054516526176095</v>
+        <v>1.025328313488982</v>
       </c>
       <c r="L11">
-        <v>1.055337895497051</v>
+        <v>1.017770195113362</v>
       </c>
       <c r="M11">
-        <v>1.065630679763498</v>
+        <v>1.026495358537802</v>
       </c>
       <c r="N11">
-        <v>1.020569922972107</v>
+        <v>1.00771659948475</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043735228449959</v>
+        <v>0.9823020427019776</v>
       </c>
       <c r="D12">
-        <v>1.050752064649439</v>
+        <v>1.009185573083701</v>
       </c>
       <c r="E12">
-        <v>1.051550338535824</v>
+        <v>1.001398300693142</v>
       </c>
       <c r="F12">
-        <v>1.0618628986135</v>
+        <v>1.01019367083993</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040463294297733</v>
+        <v>1.043182475976475</v>
       </c>
       <c r="J12">
-        <v>1.050325599930825</v>
+        <v>1.012874768130209</v>
       </c>
       <c r="K12">
-        <v>1.05430957908888</v>
+        <v>1.024138882805576</v>
       </c>
       <c r="L12">
-        <v>1.055104948654403</v>
+        <v>1.016498760411446</v>
       </c>
       <c r="M12">
-        <v>1.065380422211278</v>
+        <v>1.025128147757011</v>
       </c>
       <c r="N12">
-        <v>1.020491681293444</v>
+        <v>1.007275363028417</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043802979853231</v>
+        <v>0.9826892592345216</v>
       </c>
       <c r="D13">
-        <v>1.050806148184226</v>
+        <v>1.009490750518514</v>
       </c>
       <c r="E13">
-        <v>1.051610005568125</v>
+        <v>1.001722046477384</v>
       </c>
       <c r="F13">
-        <v>1.061926182358122</v>
+        <v>1.010537707856177</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040480319468792</v>
+        <v>1.0433146899764</v>
       </c>
       <c r="J13">
-        <v>1.050374821761967</v>
+        <v>1.013149373894628</v>
       </c>
       <c r="K13">
-        <v>1.054353981344134</v>
+        <v>1.024394922781091</v>
       </c>
       <c r="L13">
-        <v>1.05515492274127</v>
+        <v>1.016772405695446</v>
       </c>
       <c r="M13">
-        <v>1.065434109944513</v>
+        <v>1.025422403251365</v>
       </c>
       <c r="N13">
-        <v>1.02050846857904</v>
+        <v>1.007370339002036</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044024955234314</v>
+        <v>0.9839529483191819</v>
       </c>
       <c r="D14">
-        <v>1.050983332528595</v>
+        <v>1.010486864058953</v>
       </c>
       <c r="E14">
-        <v>1.051805503802425</v>
+        <v>1.002778909617886</v>
       </c>
       <c r="F14">
-        <v>1.062133528910942</v>
+        <v>1.011660789707828</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040536038978084</v>
+        <v>1.043745749316767</v>
       </c>
       <c r="J14">
-        <v>1.050536069104152</v>
+        <v>1.014045516470043</v>
       </c>
       <c r="K14">
-        <v>1.054499425003111</v>
+        <v>1.025230399834037</v>
       </c>
       <c r="L14">
-        <v>1.055318642829788</v>
+        <v>1.017665509705409</v>
       </c>
       <c r="M14">
-        <v>1.065609996386027</v>
+        <v>1.026382785820406</v>
       </c>
       <c r="N14">
-        <v>1.020563457373964</v>
+        <v>1.007680274427652</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04416170854939</v>
+        <v>0.9847277212044026</v>
       </c>
       <c r="D15">
-        <v>1.051092483029275</v>
+        <v>1.011097705275599</v>
       </c>
       <c r="E15">
-        <v>1.051925952754988</v>
+        <v>1.003427112777941</v>
       </c>
       <c r="F15">
-        <v>1.062261276392592</v>
+        <v>1.012349590034301</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040570320077768</v>
+        <v>1.044009707748945</v>
       </c>
       <c r="J15">
-        <v>1.050635394732822</v>
+        <v>1.014594913548486</v>
       </c>
       <c r="K15">
-        <v>1.054589004281218</v>
+        <v>1.025742544284775</v>
       </c>
       <c r="L15">
-        <v>1.055419498062419</v>
+        <v>1.018213116930234</v>
       </c>
       <c r="M15">
-        <v>1.065718346421703</v>
+        <v>1.026971654247806</v>
       </c>
       <c r="N15">
-        <v>1.020597325555969</v>
+        <v>1.007870280400004</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044957475291523</v>
+        <v>0.9891804369790149</v>
       </c>
       <c r="D16">
-        <v>1.051727503115215</v>
+        <v>1.014609985658466</v>
       </c>
       <c r="E16">
-        <v>1.052626958784371</v>
+        <v>1.0071558889034</v>
       </c>
       <c r="F16">
-        <v>1.063004738514177</v>
+        <v>1.0163116497483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040769095191713</v>
+        <v>1.045521705621625</v>
       </c>
       <c r="J16">
-        <v>1.051213145144528</v>
+        <v>1.017751818420326</v>
       </c>
       <c r="K16">
-        <v>1.055109886292837</v>
+        <v>1.028684451155016</v>
       </c>
       <c r="L16">
-        <v>1.05600624392096</v>
+        <v>1.021360830748551</v>
       </c>
       <c r="M16">
-        <v>1.066348695642926</v>
+        <v>1.030356676420339</v>
       </c>
       <c r="N16">
-        <v>1.020794266741878</v>
+        <v>1.008961978349365</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045456468251054</v>
+        <v>0.9919252015661779</v>
       </c>
       <c r="D17">
-        <v>1.052125586625652</v>
+        <v>1.016776413118727</v>
       </c>
       <c r="E17">
-        <v>1.053066631133953</v>
+        <v>1.009457339434957</v>
       </c>
       <c r="F17">
-        <v>1.063471020973635</v>
+        <v>1.018756866371952</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040893116580796</v>
+        <v>1.046449272728122</v>
       </c>
       <c r="J17">
-        <v>1.051575230549783</v>
+        <v>1.019697258355166</v>
       </c>
       <c r="K17">
-        <v>1.055436175686682</v>
+        <v>1.03049654897888</v>
       </c>
       <c r="L17">
-        <v>1.056374053296512</v>
+        <v>1.023301554590737</v>
       </c>
       <c r="M17">
-        <v>1.066743839015025</v>
+        <v>1.032443822798758</v>
       </c>
       <c r="N17">
-        <v>1.020917639183749</v>
+        <v>1.009634634672154</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045747462027938</v>
+        <v>0.9935094197199424</v>
       </c>
       <c r="D18">
-        <v>1.052357693262821</v>
+        <v>1.018027275197473</v>
       </c>
       <c r="E18">
-        <v>1.053323067148253</v>
+        <v>1.010786705003648</v>
       </c>
       <c r="F18">
-        <v>1.0637429705167</v>
+        <v>1.020169195293354</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040965216742748</v>
+        <v>1.046983006792604</v>
       </c>
       <c r="J18">
-        <v>1.051786313394834</v>
+        <v>1.020819895949368</v>
       </c>
       <c r="K18">
-        <v>1.055626334535765</v>
+        <v>1.031541924258555</v>
       </c>
       <c r="L18">
-        <v>1.056588504120674</v>
+        <v>1.024421807722859</v>
       </c>
       <c r="M18">
-        <v>1.066974227102572</v>
+        <v>1.033648632884619</v>
       </c>
       <c r="N18">
-        <v>1.020989541493221</v>
+        <v>1.010022756601704</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045846673245157</v>
+        <v>0.9940468142653751</v>
       </c>
       <c r="D19">
-        <v>1.052436820628851</v>
+        <v>1.018451661246465</v>
       </c>
       <c r="E19">
-        <v>1.053410502308017</v>
+        <v>1.011237818273049</v>
       </c>
       <c r="F19">
-        <v>1.063835694086946</v>
+        <v>1.020648448368289</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040989760447439</v>
+        <v>1.047163778182727</v>
       </c>
       <c r="J19">
-        <v>1.051858267669645</v>
+        <v>1.021200673048599</v>
       </c>
       <c r="K19">
-        <v>1.055691146661254</v>
+        <v>1.031896440977391</v>
       </c>
       <c r="L19">
-        <v>1.056661611752808</v>
+        <v>1.024801832859148</v>
       </c>
       <c r="M19">
-        <v>1.067052767880715</v>
+        <v>1.034057348386961</v>
       </c>
       <c r="N19">
-        <v>1.021014048376075</v>
+        <v>1.010154392519569</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045402937299024</v>
+        <v>0.9916324617647689</v>
       </c>
       <c r="D20">
-        <v>1.052082885224914</v>
+        <v>1.016545307737405</v>
       </c>
       <c r="E20">
-        <v>1.05301946027062</v>
+        <v>1.009211774145339</v>
       </c>
       <c r="F20">
-        <v>1.063420995894595</v>
+        <v>1.018495969405099</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040879835029175</v>
+        <v>1.046350513471292</v>
       </c>
       <c r="J20">
-        <v>1.051536394169384</v>
+        <v>1.019489792669621</v>
       </c>
       <c r="K20">
-        <v>1.055401184509591</v>
+        <v>1.030303335743569</v>
       </c>
       <c r="L20">
-        <v>1.056334599758399</v>
+        <v>1.023094556747647</v>
       </c>
       <c r="M20">
-        <v>1.06670145343897</v>
+        <v>1.032221203628254</v>
       </c>
       <c r="N20">
-        <v>1.020904408569709</v>
+        <v>1.009562905456236</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043959591740403</v>
+        <v>0.9835816248143964</v>
       </c>
       <c r="D21">
-        <v>1.05093116003792</v>
+        <v>1.01019413984459</v>
       </c>
       <c r="E21">
-        <v>1.051747935274179</v>
+        <v>1.002468310474626</v>
       </c>
       <c r="F21">
-        <v>1.062072471684046</v>
+        <v>1.011330733159623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040519641290753</v>
+        <v>1.043619154319087</v>
       </c>
       <c r="J21">
-        <v>1.050488590821959</v>
+        <v>1.013782199568225</v>
       </c>
       <c r="K21">
-        <v>1.05445660242346</v>
+        <v>1.024984921080011</v>
       </c>
       <c r="L21">
-        <v>1.055270435122081</v>
+        <v>1.0174030703649</v>
       </c>
       <c r="M21">
-        <v>1.065558206259151</v>
+        <v>1.026100574657373</v>
       </c>
       <c r="N21">
-        <v>1.020547267093195</v>
+        <v>1.007589206124704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043051536291534</v>
+        <v>0.9783542899797991</v>
       </c>
       <c r="D22">
-        <v>1.050206213063989</v>
+        <v>1.00607558638877</v>
       </c>
       <c r="E22">
-        <v>1.050948305737939</v>
+        <v>0.9981002114331344</v>
       </c>
       <c r="F22">
-        <v>1.061224359449618</v>
+        <v>1.006688694975875</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040291011232716</v>
+        <v>1.04183117267528</v>
       </c>
       <c r="J22">
-        <v>1.049828741138811</v>
+        <v>1.010074836453748</v>
       </c>
       <c r="K22">
-        <v>1.053861250951212</v>
+        <v>1.021527637963249</v>
       </c>
       <c r="L22">
-        <v>1.054600563090014</v>
+        <v>1.013709397685525</v>
       </c>
       <c r="M22">
-        <v>1.064838555678801</v>
+        <v>1.022128801926063</v>
       </c>
       <c r="N22">
-        <v>1.020322184601082</v>
+        <v>1.006306920870684</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043532968504469</v>
+        <v>0.9811418303236482</v>
       </c>
       <c r="D23">
-        <v>1.050590598697566</v>
+        <v>1.008271314039515</v>
       </c>
       <c r="E23">
-        <v>1.051372221416234</v>
+        <v>1.000428533879694</v>
       </c>
       <c r="F23">
-        <v>1.061673983424203</v>
+        <v>1.009163104029001</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04041241752768</v>
+        <v>1.042785966528231</v>
       </c>
       <c r="J23">
-        <v>1.050178640544069</v>
+        <v>1.012051939239133</v>
       </c>
       <c r="K23">
-        <v>1.054176996537352</v>
+        <v>1.023371618600217</v>
       </c>
       <c r="L23">
-        <v>1.05495575040695</v>
+        <v>1.015678891424686</v>
       </c>
       <c r="M23">
-        <v>1.065220136894617</v>
+        <v>1.024246539294398</v>
       </c>
       <c r="N23">
-        <v>1.02044155585998</v>
+        <v>1.00699077130621</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045427125818506</v>
+        <v>0.9917647899101526</v>
       </c>
       <c r="D24">
-        <v>1.05210218042409</v>
+        <v>1.016649773693039</v>
       </c>
       <c r="E24">
-        <v>1.0530407748072</v>
+        <v>1.009322774687104</v>
       </c>
       <c r="F24">
-        <v>1.063443600152183</v>
+        <v>1.018613900423943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040885837130435</v>
+        <v>1.046395161036201</v>
       </c>
       <c r="J24">
-        <v>1.051553943014702</v>
+        <v>1.019583574786979</v>
       </c>
       <c r="K24">
-        <v>1.055416996011461</v>
+        <v>1.030390676212094</v>
       </c>
       <c r="L24">
-        <v>1.056352427380255</v>
+        <v>1.023188126337814</v>
       </c>
       <c r="M24">
-        <v>1.066720605941714</v>
+        <v>1.032321834440346</v>
       </c>
       <c r="N24">
-        <v>1.020910387096227</v>
+        <v>1.009595329830075</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047622833087187</v>
+        <v>1.003440453739783</v>
       </c>
       <c r="D25">
-        <v>1.053852811780939</v>
+        <v>1.025875247277162</v>
       </c>
       <c r="E25">
-        <v>1.05497636153722</v>
+        <v>1.01913708891328</v>
       </c>
       <c r="F25">
-        <v>1.065496163706886</v>
+        <v>1.029039316027212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041425824850538</v>
+        <v>1.050298983640715</v>
       </c>
       <c r="J25">
-        <v>1.053145383261053</v>
+        <v>1.027852585056575</v>
       </c>
       <c r="K25">
-        <v>1.056849666461761</v>
+        <v>1.038084736450254</v>
       </c>
       <c r="L25">
-        <v>1.057969819886519</v>
+        <v>1.031445416153856</v>
       </c>
       <c r="M25">
-        <v>1.068458200562215</v>
+        <v>1.041202959286101</v>
       </c>
       <c r="N25">
-        <v>1.021452137135813</v>
+        <v>1.0124532310639</v>
       </c>
     </row>
   </sheetData>
